--- a/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A_R-Provincia-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.0767650043375204</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.06681693795901125</v>
+        <v>0.06681693795901128</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.1178157071283018</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02242788859370618</v>
+        <v>0.02087587589438773</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.06623370186844781</v>
+        <v>0.06495198606156864</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04879378452681726</v>
+        <v>0.04669182408512924</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04511754596272673</v>
+        <v>0.04847545937714049</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.08006809083124282</v>
+        <v>0.07931631172830664</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1448963869514288</v>
+        <v>0.1425182395143079</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.131737094993656</v>
+        <v>0.1380155273258891</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09313052724953293</v>
+        <v>0.09500716597133317</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.05973503098391832</v>
+        <v>0.05853660144507672</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1153985881664853</v>
+        <v>0.1143562420374855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1024960350357572</v>
+        <v>0.1012333236927302</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07441723027846439</v>
+        <v>0.07628968057658853</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06898092673118625</v>
+        <v>0.06893986536310298</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1370004199013898</v>
+        <v>0.1397834833628505</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1117174721160103</v>
+        <v>0.1116255160300407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09678009703761954</v>
+        <v>0.09998746244039176</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1590067586156765</v>
+        <v>0.1654788988268086</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2412189621688169</v>
+        <v>0.2419429795994923</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2241802583358284</v>
+        <v>0.2346807315337353</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.146543085044159</v>
+        <v>0.1471461370496405</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1065864122828021</v>
+        <v>0.1048390010392824</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.172807806447637</v>
+        <v>0.1736587218863123</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1584291847282944</v>
+        <v>0.1583713281918085</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.10916375656373</v>
+        <v>0.1130310466130237</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02226361774900013</v>
+        <v>0.02197610501452495</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03671951291222991</v>
+        <v>0.03593002890902156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04079897172175861</v>
+        <v>0.04114335828028508</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05749575071374448</v>
+        <v>0.05871765409425513</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1023966666370815</v>
+        <v>0.09901993477277825</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1307075428359212</v>
+        <v>0.1347686687134476</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1126226932716545</v>
+        <v>0.115158629024995</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1416874244287059</v>
+        <v>0.1414098489237669</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06475553418707514</v>
+        <v>0.06584929097640525</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09501902277698762</v>
+        <v>0.09260738693080688</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08130824240857204</v>
+        <v>0.08583782325811166</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1062993774096622</v>
+        <v>0.1078169831596306</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05435623754222259</v>
+        <v>0.05543007230888186</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08703897088269989</v>
+        <v>0.08637365131256711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08301662945532197</v>
+        <v>0.08322868508830752</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1127477900496384</v>
+        <v>0.1135522260757503</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1618096439883088</v>
+        <v>0.1582872979193157</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2045531201284721</v>
+        <v>0.2018395287562458</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1768975485662166</v>
+        <v>0.1774397273706258</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1938154231948775</v>
+        <v>0.1951791568947876</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.09976956946024455</v>
+        <v>0.1007485566763564</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1368010187697832</v>
+        <v>0.1370212713870805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1215251452203906</v>
+        <v>0.1234871138937545</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1454820476443314</v>
+        <v>0.1470851592716395</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03725512501870382</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.1016248731977899</v>
+        <v>0.10162487319779</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.05445045502492189</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01510076719744175</v>
+        <v>0.01253052123315239</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05279768384312696</v>
+        <v>0.05338362916824158</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01912404343748114</v>
+        <v>0.01987928576956861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07429426849855436</v>
+        <v>0.0754740752333638</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03510859195552486</v>
+        <v>0.03389339648237098</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0957979485097762</v>
+        <v>0.1009192542239738</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.08552990862307762</v>
+        <v>0.09042134416789792</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1563186497340776</v>
+        <v>0.1575986133101198</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.02822078016746835</v>
+        <v>0.02931130693616278</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.08412369658812212</v>
+        <v>0.08481626813100571</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06248666396698431</v>
+        <v>0.06046661650422411</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1245931007561044</v>
+        <v>0.1248326882240612</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0570271948352872</v>
+        <v>0.05317349919354455</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1215916933231175</v>
+        <v>0.1218928269033527</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06398779209532719</v>
+        <v>0.06332524788595933</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1359258935530429</v>
+        <v>0.1395137132716817</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.08137698803236688</v>
+        <v>0.085215727978076</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1758407856503102</v>
+        <v>0.1755779544099144</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.15561165596826</v>
+        <v>0.1593790446560771</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2209025530437463</v>
+        <v>0.2181831218834827</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.06026979502312002</v>
+        <v>0.06178256921345045</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1337896687378896</v>
+        <v>0.1322468076916862</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1035794960767552</v>
+        <v>0.103205699675234</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1686548588842967</v>
+        <v>0.1686031073010726</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.1610950889858627</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1295519689021706</v>
+        <v>0.1295519689021707</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0590061244209708</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01492036271960502</v>
+        <v>0.01532349177850417</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.03083215909359851</v>
+        <v>0.03283544206108302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03770539544089545</v>
+        <v>0.03809978854401805</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05246590539780386</v>
+        <v>0.05206548239165213</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06166408339609394</v>
+        <v>0.06210865745597351</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1323640226734609</v>
+        <v>0.130789195484046</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.123410911857805</v>
+        <v>0.1273963915228224</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1042281792739063</v>
+        <v>0.1047204993089599</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04225103943037163</v>
+        <v>0.04432497178784833</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.09018437752256586</v>
+        <v>0.09021015411771288</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.08991618764624765</v>
+        <v>0.08993327992177973</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.08699088672519978</v>
+        <v>0.086445564762062</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05091936042707455</v>
+        <v>0.05406355664968151</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08030452307334954</v>
+        <v>0.08164603025172186</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08708889086459501</v>
+        <v>0.08899777590762459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1180079838853925</v>
+        <v>0.1203725618690503</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.115893153599152</v>
+        <v>0.1192219186734009</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.21016657078303</v>
+        <v>0.2104728252608583</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1984392024214371</v>
+        <v>0.2026988971412813</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1612968005934329</v>
+        <v>0.1706043591606069</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07533061318366724</v>
+        <v>0.0768072159976229</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1355046827268105</v>
+        <v>0.1364331338816211</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1371276831661145</v>
+        <v>0.1378320198173996</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1304565015272296</v>
+        <v>0.1292356322871918</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03913518486443665</v>
+        <v>0.03902275258587237</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02492119198758911</v>
+        <v>0.02643374294334115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05850175641298251</v>
+        <v>0.05837243321930836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03853701693501953</v>
+        <v>0.0373001480833885</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1156736380114622</v>
+        <v>0.1139799789323829</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2048959319541835</v>
+        <v>0.2011003733039366</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1211286565478455</v>
+        <v>0.1189399122454514</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1328228940551171</v>
+        <v>0.1367384774586854</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08756512707513972</v>
+        <v>0.08711757214038417</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1241805476798078</v>
+        <v>0.1245395943834488</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1011092583426052</v>
+        <v>0.1015697506092898</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09728737993885872</v>
+        <v>0.09454302638154304</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1027045535060218</v>
+        <v>0.1109245745931142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09007732406680913</v>
+        <v>0.09403741439327944</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.138769881891547</v>
+        <v>0.1440701081317055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08922196470009604</v>
+        <v>0.09094897861978909</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2210462654706792</v>
+        <v>0.2179142472539207</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3240405133641366</v>
+        <v>0.3234452146878027</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2188996843405001</v>
+        <v>0.2230014522891224</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1988605695262487</v>
+        <v>0.1998168682909612</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1477037773489495</v>
+        <v>0.1509932960911976</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1914156297277959</v>
+        <v>0.1961323331826205</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1642037963318689</v>
+        <v>0.1672762345493871</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1397837808963327</v>
+        <v>0.1381812956547146</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1728596489085192</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2248436475875016</v>
+        <v>0.2248436475875014</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04550314304469235</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.007387764057050451</v>
+        <v>0.007303140232642214</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04668514326059402</v>
+        <v>0.04497422943012037</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04196646117975727</v>
+        <v>0.0406161687467053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08044535373714082</v>
+        <v>0.08464767258639862</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04298759911336004</v>
+        <v>0.04245726834452342</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1203171038874778</v>
+        <v>0.1126988062599711</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1286920707711765</v>
+        <v>0.1308636216313724</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1922309372939366</v>
+        <v>0.1890298793064056</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02919667243645593</v>
+        <v>0.02921318829510729</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08825849673699805</v>
+        <v>0.08941318635958807</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.09442095656781765</v>
+        <v>0.09517910370302092</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1453024456866696</v>
+        <v>0.1435575592855271</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04393735797657688</v>
+        <v>0.04775102812158413</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.111865213479556</v>
+        <v>0.1135619559326755</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.104255999158206</v>
+        <v>0.101383705369988</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1417204886173135</v>
+        <v>0.1460515085988878</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1062999677944889</v>
+        <v>0.1050081524288587</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2043454026900518</v>
+        <v>0.1990303530040251</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2188681891916747</v>
+        <v>0.2231500623419762</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2621836213705757</v>
+        <v>0.2656757775132006</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.06428862359814795</v>
+        <v>0.06524530506040879</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1451866053319273</v>
+        <v>0.1439845039456703</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1489461967492121</v>
+        <v>0.1470602750020495</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1913152864267898</v>
+        <v>0.1918447117758626</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03397504356091231</v>
+        <v>0.03380810457904362</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05000521319643426</v>
+        <v>0.04997470962386746</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05303261877541934</v>
+        <v>0.05230626956657213</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.06515009880577487</v>
+        <v>0.06474841539791233</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.09458827061672499</v>
+        <v>0.09394514796123934</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.09454037948854684</v>
+        <v>0.09235708711880083</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1148055503050663</v>
+        <v>0.1106937345499227</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1589928714192582</v>
+        <v>0.1594606025722292</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.06915385825182306</v>
+        <v>0.0686975502764416</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.07791137208134408</v>
+        <v>0.07775212674632179</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.08947204458956398</v>
+        <v>0.09071031196846573</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1191999099422598</v>
+        <v>0.1208942748660699</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06844954594110612</v>
+        <v>0.06739037487765173</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.08984398541069706</v>
+        <v>0.09208055555505806</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.09709320489252038</v>
+        <v>0.09462752583031449</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1124006756994172</v>
+        <v>0.1124496116455989</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1448028452120387</v>
+        <v>0.1431821647118309</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1426711364285718</v>
+        <v>0.1448041002920173</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1727418214893444</v>
+        <v>0.1676401431813531</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2107066969575485</v>
+        <v>0.2095863404391116</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1003772938948297</v>
+        <v>0.1003912300292251</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1119884579618322</v>
+        <v>0.1113791964568913</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1249720699302971</v>
+        <v>0.1256758035505124</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1542517413824339</v>
+        <v>0.1535768956558204</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.1548234726028148</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1978885452569883</v>
+        <v>0.1978885452569884</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.1083984065830643</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06650648209544811</v>
+        <v>0.06627631418245745</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.04493296094854933</v>
+        <v>0.04417553341285609</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.03854921506743719</v>
+        <v>0.03959391849898558</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07615351091969132</v>
+        <v>0.07392501879277598</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.1072040177227685</v>
+        <v>0.1072063751951715</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1189104548340785</v>
+        <v>0.1216981430252997</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.1262537225391137</v>
+        <v>0.1304974291802413</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1754669889307637</v>
+        <v>0.1745148084826547</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.09289269528411369</v>
+        <v>0.09395559805104817</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08903771551272835</v>
+        <v>0.09053639286313872</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.08987273114766484</v>
+        <v>0.08901394566476213</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1307479843377105</v>
+        <v>0.1322350763800377</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1076870930588268</v>
+        <v>0.1072787383197414</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08113887502093935</v>
+        <v>0.08223011106453468</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.07111169783838869</v>
+        <v>0.0693955498779614</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.115775384149803</v>
+        <v>0.1128116822970588</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1561870911939187</v>
+        <v>0.1580096028551297</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1716690505331287</v>
+        <v>0.1700257237809848</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.1826296786442583</v>
+        <v>0.1835049578605107</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2225667099872609</v>
+        <v>0.22186324813419</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.1243569473209208</v>
+        <v>0.1249772715427483</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1209158551978617</v>
+        <v>0.1202707918408767</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.1228936938504775</v>
+        <v>0.1218518962830094</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1628056401667152</v>
+        <v>0.1616846504009447</v>
       </c>
     </row>
     <row r="28">
@@ -1773,7 +1773,7 @@
         <v>0.1518761437633046</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.1746000586174658</v>
+        <v>0.1746000586174659</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.08080730570318109</v>
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0420732608442741</v>
+        <v>0.0426970094682789</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.05813063991163545</v>
+        <v>0.05746668967104272</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05452705418241923</v>
+        <v>0.05487889444617853</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.07680896252088661</v>
+        <v>0.07720743472747255</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.1014400154049544</v>
+        <v>0.1013560041919524</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1434550107223809</v>
+        <v>0.1432160928701153</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1397812206681608</v>
+        <v>0.13968864298809</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.1642613995045958</v>
+        <v>0.1656248994785302</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.07444903985757284</v>
+        <v>0.07355411007078812</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1045563095667852</v>
+        <v>0.1044980968154723</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.1005581341675076</v>
+        <v>0.1006724758896181</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1252344288296142</v>
+        <v>0.1247829083231158</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.05711691939304123</v>
+        <v>0.05676361908476334</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.07669556211991747</v>
+        <v>0.07529091260980979</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07229249793615865</v>
+        <v>0.0714587886004555</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.09592231400750947</v>
+        <v>0.09628282270148825</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1229058573576801</v>
+        <v>0.1232384754402429</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1693078760066396</v>
+        <v>0.1684638530021988</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.1649289782620119</v>
+        <v>0.165426064505011</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1847286610536542</v>
+        <v>0.1858114030307083</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.08838235495880821</v>
+        <v>0.08770765617422931</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.1196072179792998</v>
+        <v>0.1196998952315047</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.1160952366650049</v>
+        <v>0.1159624068668762</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.1389990655670844</v>
+        <v>0.1388571139817483</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>6123</v>
+        <v>5699</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19522</v>
+        <v>19144</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>14334</v>
+        <v>13716</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>14386</v>
+        <v>15456</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20885</v>
+        <v>20689</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>41621</v>
+        <v>40938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>38033</v>
+        <v>39845</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>29435</v>
+        <v>30028</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>31889</v>
+        <v>31250</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>67160</v>
+        <v>66553</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>59700</v>
+        <v>58965</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>47248</v>
+        <v>48437</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>18832</v>
+        <v>18821</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>40379</v>
+        <v>41200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32818</v>
+        <v>32791</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>30858</v>
+        <v>31881</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>41475</v>
+        <v>43163</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>69289</v>
+        <v>69497</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>64722</v>
+        <v>67753</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>46317</v>
+        <v>46507</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>56901</v>
+        <v>55968</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>100571</v>
+        <v>101066</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>92279</v>
+        <v>92246</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>69309</v>
+        <v>71764</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>10978</v>
+        <v>10836</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>18563</v>
+        <v>18164</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>20505</v>
+        <v>20678</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>30510</v>
+        <v>31158</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51603</v>
+        <v>49901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>68460</v>
+        <v>70587</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>58911</v>
+        <v>60238</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>77431</v>
+        <v>77280</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>64563</v>
+        <v>65653</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>97802</v>
+        <v>95320</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>83395</v>
+        <v>88040</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>114499</v>
+        <v>116134</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>26802</v>
+        <v>27331</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>44001</v>
+        <v>43664</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>41722</v>
+        <v>41829</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>59829</v>
+        <v>60256</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>81544</v>
+        <v>79769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>107138</v>
+        <v>105716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>92532</v>
+        <v>92816</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>105919</v>
+        <v>106664</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>99473</v>
+        <v>100449</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>140808</v>
+        <v>141035</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>124643</v>
+        <v>126656</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>156705</v>
+        <v>158431</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4815</v>
+        <v>3995</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>17109</v>
+        <v>17299</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>6092</v>
+        <v>6333</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>23476</v>
+        <v>23849</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11776</v>
+        <v>11368</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>32669</v>
+        <v>34415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>28764</v>
+        <v>30410</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>55709</v>
+        <v>56165</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18464</v>
+        <v>19177</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>55948</v>
+        <v>56408</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>40921</v>
+        <v>39598</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>83773</v>
+        <v>83934</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18183</v>
+        <v>16954</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>39401</v>
+        <v>39499</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>20384</v>
+        <v>20173</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42952</v>
+        <v>44085</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27295</v>
+        <v>28582</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>59965</v>
+        <v>59876</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52334</v>
+        <v>53601</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>78725</v>
+        <v>77756</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39432</v>
+        <v>40422</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>88979</v>
+        <v>87953</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>67832</v>
+        <v>67587</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>113399</v>
+        <v>113365</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5352</v>
+        <v>5496</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>11531</v>
+        <v>12280</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13950</v>
+        <v>14096</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19577</v>
+        <v>19428</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>22905</v>
+        <v>23071</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>51483</v>
+        <v>50871</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>47795</v>
+        <v>49338</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>43980</v>
+        <v>44188</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>30849</v>
+        <v>32363</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>68805</v>
+        <v>68824</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>68089</v>
+        <v>68102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>69167</v>
+        <v>68733</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18263</v>
+        <v>19391</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30032</v>
+        <v>30534</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32220</v>
+        <v>32926</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44034</v>
+        <v>44916</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>43049</v>
+        <v>44286</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>81744</v>
+        <v>81864</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>76852</v>
+        <v>78502</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>68061</v>
+        <v>71988</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>55001</v>
+        <v>56079</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>103381</v>
+        <v>104089</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>103840</v>
+        <v>104373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>103727</v>
+        <v>102756</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>7956</v>
+        <v>7934</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5299</v>
+        <v>5620</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12357</v>
+        <v>12329</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>7926</v>
+        <v>7671</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>24022</v>
+        <v>23670</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>44993</v>
+        <v>44160</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>26477</v>
+        <v>25999</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>30406</v>
+        <v>31302</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>35987</v>
+        <v>35803</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>53672</v>
+        <v>53827</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>43458</v>
+        <v>43655</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>42279</v>
+        <v>41087</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>20881</v>
+        <v>22552</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>19152</v>
+        <v>19994</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29311</v>
+        <v>30431</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18350</v>
+        <v>18705</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>45904</v>
+        <v>45254</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>71156</v>
+        <v>71026</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>47849</v>
+        <v>48745</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>45523</v>
+        <v>45742</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>60703</v>
+        <v>62055</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>82732</v>
+        <v>84770</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>70576</v>
+        <v>71897</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>60748</v>
+        <v>60051</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2001</v>
+        <v>1978</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>12791</v>
+        <v>12322</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>11042</v>
+        <v>10687</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>21777</v>
+        <v>22915</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11957</v>
+        <v>11809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>33693</v>
+        <v>31559</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>35148</v>
+        <v>35741</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>50701</v>
+        <v>49857</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>16028</v>
+        <v>16037</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>48896</v>
+        <v>49536</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>50632</v>
+        <v>51039</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>77658</v>
+        <v>76725</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11899</v>
+        <v>12932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>30649</v>
+        <v>31114</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>27432</v>
+        <v>26676</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>38365</v>
+        <v>39537</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29567</v>
+        <v>29207</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>57223</v>
+        <v>55735</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>59776</v>
+        <v>60946</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>69151</v>
+        <v>70072</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>35292</v>
+        <v>35817</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>80435</v>
+        <v>79769</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>79871</v>
+        <v>78859</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>102250</v>
+        <v>102533</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>20896</v>
+        <v>20793</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>33143</v>
+        <v>33123</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>34819</v>
+        <v>34342</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>46888</v>
+        <v>46599</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>60368</v>
+        <v>59958</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>65597</v>
+        <v>64082</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>79364</v>
+        <v>76522</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>122752</v>
+        <v>123113</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>86667</v>
+        <v>86095</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>105698</v>
+        <v>105482</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>120595</v>
+        <v>122264</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>177816</v>
+        <v>180343</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>42098</v>
+        <v>41447</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>59548</v>
+        <v>61030</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63747</v>
+        <v>62128</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>80893</v>
+        <v>80929</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>92416</v>
+        <v>91382</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>98993</v>
+        <v>100473</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>119415</v>
+        <v>115889</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>162678</v>
+        <v>161813</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>125797</v>
+        <v>125815</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>151928</v>
+        <v>151102</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>168444</v>
+        <v>169392</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>230104</v>
+        <v>229097</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>49467</v>
+        <v>49296</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>35007</v>
+        <v>34417</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>30014</v>
+        <v>30827</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>60776</v>
+        <v>58997</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>83996</v>
+        <v>83997</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>97965</v>
+        <v>100261</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>104307</v>
+        <v>107813</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>145871</v>
+        <v>145080</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>141876</v>
+        <v>143499</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>142723</v>
+        <v>145125</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>144223</v>
+        <v>142845</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>213041</v>
+        <v>215464</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>80097</v>
+        <v>79793</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>63215</v>
+        <v>64065</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>55366</v>
+        <v>54030</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>92397</v>
+        <v>90032</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>122374</v>
+        <v>123802</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>141430</v>
+        <v>140076</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>150883</v>
+        <v>151606</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>185027</v>
+        <v>184442</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>189931</v>
+        <v>190879</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>193822</v>
+        <v>192788</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>197214</v>
+        <v>195542</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>265276</v>
+        <v>263449</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>137855</v>
+        <v>139899</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>199201</v>
+        <v>196926</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>185084</v>
+        <v>186278</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>271348</v>
+        <v>272755</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>342786</v>
+        <v>342502</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>510457</v>
+        <v>509607</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>495460</v>
+        <v>495132</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>613837</v>
+        <v>618933</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>495514</v>
+        <v>489557</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>730335</v>
+        <v>729928</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>697762</v>
+        <v>698555</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>910419</v>
+        <v>907136</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>187146</v>
+        <v>185988</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>262819</v>
+        <v>258005</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>245386</v>
+        <v>242556</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>338871</v>
+        <v>340144</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>415323</v>
+        <v>416447</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>602450</v>
+        <v>599446</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>584598</v>
+        <v>586360</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>690323</v>
+        <v>694369</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>588250</v>
+        <v>583759</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>835467</v>
+        <v>836114</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>805572</v>
+        <v>804651</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1010484</v>
+        <v>1009452</v>
       </c>
     </row>
     <row r="40">
